--- a/Code/Results/Cases/Case_1_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_163/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.72712066587368</v>
+        <v>16.44655972670542</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.395086735041671</v>
+        <v>5.825319729989229</v>
       </c>
       <c r="E2">
-        <v>11.78553814018505</v>
+        <v>17.40833615660672</v>
       </c>
       <c r="F2">
-        <v>27.77779855851927</v>
+        <v>30.85319011541994</v>
       </c>
       <c r="G2">
-        <v>39.96254055460986</v>
+        <v>40.48353582962765</v>
       </c>
       <c r="H2">
-        <v>12.4163432796818</v>
+        <v>16.89353768219975</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.99597768440699</v>
+        <v>9.1680245203908</v>
       </c>
       <c r="L2">
-        <v>6.776939004282707</v>
+        <v>8.600332724696672</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.08811302164364</v>
+        <v>16.35344947910216</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.422524382082192</v>
+        <v>5.82478556136972</v>
       </c>
       <c r="E3">
-        <v>11.85135929248603</v>
+        <v>17.44239627529597</v>
       </c>
       <c r="F3">
-        <v>26.83623086532282</v>
+        <v>30.71139977146612</v>
       </c>
       <c r="G3">
-        <v>38.45970239123658</v>
+        <v>40.19221849282994</v>
       </c>
       <c r="H3">
-        <v>12.24578306390635</v>
+        <v>16.89896764904882</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.24951149330657</v>
+        <v>8.794949873785693</v>
       </c>
       <c r="L3">
-        <v>6.369673052853727</v>
+        <v>8.568793550946751</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68814375786654</v>
+        <v>16.29981361916783</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.439166765664162</v>
+        <v>5.824381180318507</v>
       </c>
       <c r="E4">
-        <v>11.89550321647234</v>
+        <v>17.46490890234919</v>
       </c>
       <c r="F4">
-        <v>26.26509369502617</v>
+        <v>30.63185008734187</v>
       </c>
       <c r="G4">
-        <v>37.54428893772932</v>
+        <v>40.02374229546549</v>
       </c>
       <c r="H4">
-        <v>12.14856669975978</v>
+        <v>16.90537061250331</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.77002389861133</v>
+        <v>8.555350506814454</v>
       </c>
       <c r="L4">
-        <v>6.107277163651104</v>
+        <v>8.551211358707441</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.52346050293148</v>
+        <v>16.27886433468752</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.445906724659926</v>
+        <v>5.82419732802144</v>
       </c>
       <c r="E5">
-        <v>11.91441040454127</v>
+        <v>17.47448553190161</v>
       </c>
       <c r="F5">
-        <v>26.03435572169663</v>
+        <v>30.60134323172238</v>
       </c>
       <c r="G5">
-        <v>37.1735128301387</v>
+        <v>39.95775791596865</v>
       </c>
       <c r="H5">
-        <v>12.11080553035422</v>
+        <v>16.90875097161546</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.56936392575066</v>
+        <v>8.45513447158242</v>
       </c>
       <c r="L5">
-        <v>6.022186023228788</v>
+        <v>8.544500330525384</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.49601990896899</v>
+        <v>16.2754410783501</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.447023623173763</v>
+        <v>5.824165652467777</v>
       </c>
       <c r="E6">
-        <v>11.9176048329918</v>
+        <v>17.47610004660493</v>
       </c>
       <c r="F6">
-        <v>25.99617046797934</v>
+        <v>30.5963935493865</v>
       </c>
       <c r="G6">
-        <v>37.11209524567582</v>
+        <v>39.94696415784623</v>
       </c>
       <c r="H6">
-        <v>12.10464634970657</v>
+        <v>16.90935882643808</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.53572852293347</v>
+        <v>8.438340273106288</v>
       </c>
       <c r="L6">
-        <v>6.009875097257436</v>
+        <v>8.543413532082051</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.68592931618547</v>
+        <v>16.29952739015193</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.439257820815541</v>
+        <v>5.824378777827078</v>
       </c>
       <c r="E7">
-        <v>11.8957545128018</v>
+        <v>17.46503642576683</v>
       </c>
       <c r="F7">
-        <v>26.26197342572604</v>
+        <v>30.63143089993427</v>
       </c>
       <c r="G7">
-        <v>37.53927878402938</v>
+        <v>40.02284152029194</v>
       </c>
       <c r="H7">
-        <v>12.14804997307867</v>
+        <v>16.90541308013188</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.7673389576099</v>
+        <v>8.554009293183498</v>
       </c>
       <c r="L7">
-        <v>6.105805853961643</v>
+        <v>8.551119006889913</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.50849469898063</v>
+        <v>16.41373363671349</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.40459553038891</v>
+        <v>5.825151492886536</v>
       </c>
       <c r="E8">
-        <v>11.80744704644532</v>
+        <v>17.41974828982378</v>
       </c>
       <c r="F8">
-        <v>27.45183869170922</v>
+        <v>30.80275599488994</v>
       </c>
       <c r="G8">
-        <v>39.44307837272483</v>
+        <v>40.38096842127769</v>
       </c>
       <c r="H8">
-        <v>12.35595699007637</v>
+        <v>16.89477269218786</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.74301287733663</v>
+        <v>9.041613081395127</v>
       </c>
       <c r="L8">
-        <v>6.639073575485373</v>
+        <v>8.589091420036759</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05304628449589</v>
+        <v>16.66483392711099</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.334544398719895</v>
+        <v>5.826054137197136</v>
       </c>
       <c r="E9">
-        <v>11.66481294816136</v>
+        <v>17.34361568969461</v>
       </c>
       <c r="F9">
-        <v>29.83081400277869</v>
+        <v>31.19722753709189</v>
       </c>
       <c r="G9">
-        <v>43.21853851745887</v>
+        <v>41.16295630971049</v>
       </c>
       <c r="H9">
-        <v>12.82458467557129</v>
+        <v>16.89827453802621</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.4871291136817</v>
+        <v>9.911648327299501</v>
       </c>
       <c r="L9">
-        <v>7.587186790405694</v>
+        <v>8.677437230238816</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.13756976086789</v>
+        <v>16.86457493002182</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.281127521995183</v>
+        <v>5.826335177332277</v>
       </c>
       <c r="E10">
-        <v>11.58004585959539</v>
+        <v>17.29538929753333</v>
       </c>
       <c r="F10">
-        <v>31.59540071584566</v>
+        <v>31.52107916508267</v>
       </c>
       <c r="G10">
-        <v>46.00047042083774</v>
+        <v>41.78204489849324</v>
       </c>
       <c r="H10">
-        <v>13.20779666536524</v>
+        <v>16.91571040334497</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.66496901659055</v>
+        <v>10.4954666446001</v>
       </c>
       <c r="L10">
-        <v>8.225124796033985</v>
+        <v>8.750420498790353</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.61884487639044</v>
+        <v>16.95845857500705</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.256237711378926</v>
+        <v>5.826378275681269</v>
       </c>
       <c r="E11">
-        <v>11.54617396317294</v>
+        <v>17.27511937688345</v>
       </c>
       <c r="F11">
-        <v>32.40012893514159</v>
+        <v>31.67539847788058</v>
       </c>
       <c r="G11">
-        <v>47.26533462281978</v>
+        <v>42.07242093213699</v>
       </c>
       <c r="H11">
-        <v>13.39095679551078</v>
+        <v>16.92686499870056</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.17855434998057</v>
+        <v>10.74857412224793</v>
       </c>
       <c r="L11">
-        <v>8.502927284437964</v>
+        <v>8.785283927086729</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.79929055566726</v>
+        <v>16.99441790796289</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.246712657382568</v>
+        <v>5.826382270765061</v>
       </c>
       <c r="E12">
-        <v>11.53405325866199</v>
+        <v>17.26768330369996</v>
       </c>
       <c r="F12">
-        <v>32.70505792955843</v>
+        <v>31.73480434918653</v>
       </c>
       <c r="G12">
-        <v>47.74409352711854</v>
+        <v>42.18355328609179</v>
       </c>
       <c r="H12">
-        <v>13.46161758118233</v>
+        <v>16.93155135655683</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.36987810580873</v>
+        <v>10.84259528367805</v>
       </c>
       <c r="L12">
-        <v>8.606374456912668</v>
+        <v>8.798716507355133</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.76050930797686</v>
+        <v>16.98665572508452</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.24876873990536</v>
+        <v>5.826381960688013</v>
       </c>
       <c r="E13">
-        <v>11.53663174579009</v>
+        <v>17.26927413768231</v>
       </c>
       <c r="F13">
-        <v>32.63937833774308</v>
+        <v>31.72196777951066</v>
       </c>
       <c r="G13">
-        <v>47.64099513223913</v>
+        <v>42.15956814171925</v>
       </c>
       <c r="H13">
-        <v>13.44634106915079</v>
+        <v>16.93052152335506</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.32881294203134</v>
+        <v>10.82242776089076</v>
       </c>
       <c r="L13">
-        <v>8.584172540694009</v>
+        <v>8.795813447318995</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.63372666814564</v>
+        <v>16.96140895679386</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.255456170338894</v>
+        <v>5.826378852158815</v>
       </c>
       <c r="E14">
-        <v>11.54516244914576</v>
+        <v>17.27450280388216</v>
       </c>
       <c r="F14">
-        <v>32.42521208541415</v>
+        <v>31.68026664772566</v>
       </c>
       <c r="G14">
-        <v>47.30472722761503</v>
+        <v>42.08154083891857</v>
       </c>
       <c r="H14">
-        <v>13.39674381346123</v>
+        <v>16.92724128942978</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.19435774877522</v>
+        <v>10.75634603905199</v>
       </c>
       <c r="L14">
-        <v>8.511472824914733</v>
+        <v>8.786384463308371</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.55583234715926</v>
+        <v>16.94599686376448</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.259538948862477</v>
+        <v>5.826375338921198</v>
       </c>
       <c r="E15">
-        <v>11.55048065480134</v>
+        <v>17.27773672306236</v>
       </c>
       <c r="F15">
-        <v>32.29405253250694</v>
+        <v>31.65484847338245</v>
       </c>
       <c r="G15">
-        <v>47.098722600088</v>
+        <v>42.03389709371879</v>
       </c>
       <c r="H15">
-        <v>13.3665346178711</v>
+        <v>16.92529222514822</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.11158983085383</v>
+        <v>10.7156305494524</v>
       </c>
       <c r="L15">
-        <v>8.466715225877831</v>
+        <v>8.780638702659681</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.10586802827649</v>
+        <v>16.85849792606286</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.282741004116349</v>
+        <v>5.826330643465048</v>
       </c>
       <c r="E16">
-        <v>11.58235646343442</v>
+        <v>17.29674754003355</v>
       </c>
       <c r="F16">
-        <v>31.54284136738053</v>
+        <v>31.51113166325737</v>
       </c>
       <c r="G16">
-        <v>45.91778325521246</v>
+        <v>41.76323700224093</v>
       </c>
       <c r="H16">
-        <v>13.19600712872757</v>
+        <v>16.91504619187009</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.6309605983432</v>
+        <v>10.4786716553336</v>
       </c>
       <c r="L16">
-        <v>8.206722889525816</v>
+        <v>8.74817483056078</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.82668070743888</v>
+        <v>16.80557500771233</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.296813306409236</v>
+        <v>5.82628141837765</v>
       </c>
       <c r="E17">
-        <v>11.60313387907876</v>
+        <v>17.30883724598407</v>
       </c>
       <c r="F17">
-        <v>31.08243303235448</v>
+        <v>31.42473209023472</v>
       </c>
       <c r="G17">
-        <v>45.19303799767994</v>
+        <v>41.59937715741221</v>
       </c>
       <c r="H17">
-        <v>13.09367841078884</v>
+        <v>16.90958538024599</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.33043992740958</v>
+        <v>10.33008600453177</v>
       </c>
       <c r="L17">
-        <v>8.044071600897338</v>
+        <v>8.728679243877412</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.66496477662432</v>
+        <v>16.77542109341978</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.30485273729248</v>
+        <v>5.826245136501732</v>
       </c>
       <c r="E18">
-        <v>11.61552381927263</v>
+        <v>17.31594798621963</v>
       </c>
       <c r="F18">
-        <v>30.81781048258952</v>
+        <v>31.37569837982802</v>
       </c>
       <c r="G18">
-        <v>44.77612554880717</v>
+        <v>41.50595811556057</v>
       </c>
       <c r="H18">
-        <v>13.03565121361155</v>
+        <v>16.90674791100746</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.15549395539113</v>
+        <v>10.24345082049411</v>
       </c>
       <c r="L18">
-        <v>7.949349563120997</v>
+        <v>8.717622963702599</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.61001805952039</v>
+        <v>16.76526140986348</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.307565810378992</v>
+        <v>5.826231487715727</v>
       </c>
       <c r="E19">
-        <v>11.61979337372298</v>
+        <v>17.31838254289392</v>
       </c>
       <c r="F19">
-        <v>30.72825034098378</v>
+        <v>31.35921105927618</v>
       </c>
       <c r="G19">
-        <v>44.63496110483831</v>
+        <v>41.47447292780805</v>
       </c>
       <c r="H19">
-        <v>13.01614577079996</v>
+        <v>16.905839337569</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.09589967865978</v>
+        <v>10.21391727709234</v>
       </c>
       <c r="L19">
-        <v>7.917076585090182</v>
+        <v>8.713906728435358</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.85651867419668</v>
+        <v>16.81117933928051</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.295321039412794</v>
+        <v>5.826287484226917</v>
       </c>
       <c r="E20">
-        <v>11.60087639930389</v>
+        <v>17.30753402253912</v>
       </c>
       <c r="F20">
-        <v>31.13142520412061</v>
+        <v>31.43386132428327</v>
       </c>
       <c r="G20">
-        <v>45.27019550938024</v>
+        <v>41.6167351464635</v>
       </c>
       <c r="H20">
-        <v>13.10448540141389</v>
+        <v>16.91013529435333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.36264741808464</v>
+        <v>10.34602480951441</v>
       </c>
       <c r="L20">
-        <v>8.061506912106173</v>
+        <v>8.730738387580894</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.67101512829677</v>
+        <v>16.96881369780709</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.253494744712268</v>
+        <v>5.826380100800298</v>
       </c>
       <c r="E21">
-        <v>11.5426373537118</v>
+        <v>17.2729605141057</v>
       </c>
       <c r="F21">
-        <v>32.48811312301081</v>
+        <v>31.69248930679089</v>
       </c>
       <c r="G21">
-        <v>47.40350380796042</v>
+        <v>42.10442819597498</v>
       </c>
       <c r="H21">
-        <v>13.4112761247078</v>
+        <v>16.92819223594232</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.23393590788435</v>
+        <v>10.77580559995205</v>
       </c>
       <c r="L21">
-        <v>8.532873718771246</v>
+        <v>8.789147797441592</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.19281472005145</v>
+        <v>17.07420002254004</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.225569096596842</v>
+        <v>5.826368727974307</v>
       </c>
       <c r="E22">
-        <v>11.50870556570149</v>
+        <v>17.25176181356047</v>
       </c>
       <c r="F22">
-        <v>33.37591587704428</v>
+        <v>31.86714393950943</v>
       </c>
       <c r="G22">
-        <v>48.79646854199108</v>
+        <v>42.42996146418515</v>
       </c>
       <c r="H22">
-        <v>13.61938821615802</v>
+        <v>16.94268769452421</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.78498103995735</v>
+        <v>11.04604292080278</v>
       </c>
       <c r="L22">
-        <v>8.830754363254741</v>
+        <v>8.828661349447827</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.91529840071328</v>
+        <v>17.01774612258929</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.24053278953858</v>
+        <v>5.826381421862141</v>
       </c>
       <c r="E23">
-        <v>11.52642650723086</v>
+        <v>17.26294819921429</v>
       </c>
       <c r="F23">
-        <v>32.90199533599162</v>
+        <v>31.77342563459511</v>
       </c>
       <c r="G23">
-        <v>48.05315620781068</v>
+        <v>42.2556248860016</v>
       </c>
       <c r="H23">
-        <v>13.50760746975508</v>
+        <v>16.93470512803267</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.49254563607815</v>
+        <v>10.90279559346023</v>
       </c>
       <c r="L23">
-        <v>8.672689616164488</v>
+        <v>8.807452575497257</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84303268500179</v>
+        <v>16.80864477114199</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.295995850822331</v>
+        <v>5.826284766681826</v>
       </c>
       <c r="E24">
-        <v>11.6018956230388</v>
+        <v>17.30812271082954</v>
       </c>
       <c r="F24">
-        <v>31.10927561036842</v>
+        <v>31.42973200556739</v>
       </c>
       <c r="G24">
-        <v>45.23531335657933</v>
+        <v>41.60888514421623</v>
       </c>
       <c r="H24">
-        <v>13.09959706228729</v>
+        <v>16.90988573724936</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.34809318133598</v>
+        <v>10.33882264642202</v>
       </c>
       <c r="L24">
-        <v>8.05362818428981</v>
+        <v>8.729806974627751</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.64353206996124</v>
+        <v>16.59412747965176</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.353785048342929</v>
+        <v>5.82587644463937</v>
       </c>
       <c r="E25">
-        <v>11.69999115364497</v>
+        <v>17.36285647473717</v>
       </c>
       <c r="F25">
-        <v>29.18360873059908</v>
+        <v>31.08440766905195</v>
       </c>
       <c r="G25">
-        <v>42.19469855277948</v>
+        <v>40.94327428202107</v>
       </c>
       <c r="H25">
-        <v>12.69109939625229</v>
+        <v>16.89471636429698</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.0335182699453</v>
+        <v>9.685831261921232</v>
       </c>
       <c r="L25">
-        <v>7.341083307449326</v>
+        <v>8.652089266091862</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_163/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.44655972670542</v>
+        <v>13.72712066587364</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.825319729989229</v>
+        <v>4.39508673504181</v>
       </c>
       <c r="E2">
-        <v>17.40833615660672</v>
+        <v>11.78553814018488</v>
       </c>
       <c r="F2">
-        <v>30.85319011541994</v>
+        <v>27.7777985585193</v>
       </c>
       <c r="G2">
-        <v>40.48353582962765</v>
+        <v>39.96254055460994</v>
       </c>
       <c r="H2">
-        <v>16.89353768219975</v>
+        <v>12.4163432796818</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.1680245203908</v>
+        <v>13.99597768440689</v>
       </c>
       <c r="L2">
-        <v>8.600332724696672</v>
+        <v>6.776939004282659</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.35344947910216</v>
+        <v>13.08811302164361</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.82478556136972</v>
+        <v>4.422524382082194</v>
       </c>
       <c r="E3">
-        <v>17.44239627529597</v>
+        <v>11.85135929248591</v>
       </c>
       <c r="F3">
-        <v>30.71139977146612</v>
+        <v>26.83623086532276</v>
       </c>
       <c r="G3">
-        <v>40.19221849282994</v>
+        <v>38.45970239123648</v>
       </c>
       <c r="H3">
-        <v>16.89896764904882</v>
+        <v>12.24578306390632</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.794949873785693</v>
+        <v>13.24951149330656</v>
       </c>
       <c r="L3">
-        <v>8.568793550946751</v>
+        <v>6.369673052853752</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.29981361916783</v>
+        <v>12.68814375786649</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.824381180318507</v>
+        <v>4.439166765664031</v>
       </c>
       <c r="E4">
-        <v>17.46490890234919</v>
+        <v>11.89550321647228</v>
       </c>
       <c r="F4">
-        <v>30.63185008734187</v>
+        <v>26.26509369502606</v>
       </c>
       <c r="G4">
-        <v>40.02374229546549</v>
+        <v>37.54428893772915</v>
       </c>
       <c r="H4">
-        <v>16.90537061250331</v>
+        <v>12.14856669975973</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.555350506814454</v>
+        <v>12.77002389861135</v>
       </c>
       <c r="L4">
-        <v>8.551211358707441</v>
+        <v>6.10727716365114</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.27886433468752</v>
+        <v>12.52346050293157</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.82419732802144</v>
+        <v>4.445906724659858</v>
       </c>
       <c r="E5">
-        <v>17.47448553190161</v>
+        <v>11.91441040454134</v>
       </c>
       <c r="F5">
-        <v>30.60134323172238</v>
+        <v>26.03435572169665</v>
       </c>
       <c r="G5">
-        <v>39.95775791596865</v>
+        <v>37.17351283013877</v>
       </c>
       <c r="H5">
-        <v>16.90875097161546</v>
+        <v>12.11080553035421</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.45513447158242</v>
+        <v>12.5693639257506</v>
       </c>
       <c r="L5">
-        <v>8.544500330525384</v>
+        <v>6.022186023228801</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.2754410783501</v>
+        <v>12.49601990896894</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.824165652467777</v>
+        <v>4.447023623173836</v>
       </c>
       <c r="E6">
-        <v>17.47610004660493</v>
+        <v>11.91760483299197</v>
       </c>
       <c r="F6">
-        <v>30.5963935493865</v>
+        <v>25.99617046797927</v>
       </c>
       <c r="G6">
-        <v>39.94696415784623</v>
+        <v>37.11209524567565</v>
       </c>
       <c r="H6">
-        <v>16.90935882643808</v>
+        <v>12.10464634970656</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.438340273106288</v>
+        <v>12.53572852293351</v>
       </c>
       <c r="L6">
-        <v>8.543413532082051</v>
+        <v>6.00987509725748</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.29952739015193</v>
+        <v>12.68592931618549</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.824378777827078</v>
+        <v>4.439257820815542</v>
       </c>
       <c r="E7">
-        <v>17.46503642576683</v>
+        <v>11.89575451280191</v>
       </c>
       <c r="F7">
-        <v>30.63143089993427</v>
+        <v>26.26197342572608</v>
       </c>
       <c r="G7">
-        <v>40.02284152029194</v>
+        <v>37.53927878402925</v>
       </c>
       <c r="H7">
-        <v>16.90541308013188</v>
+        <v>12.14804997307869</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.554009293183498</v>
+        <v>12.76733895760992</v>
       </c>
       <c r="L7">
-        <v>8.551119006889913</v>
+        <v>6.10580585396163</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.41373363671349</v>
+        <v>13.50849469898056</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.825151492886536</v>
+        <v>4.404595530389048</v>
       </c>
       <c r="E8">
-        <v>17.41974828982378</v>
+        <v>11.80744704644512</v>
       </c>
       <c r="F8">
-        <v>30.80275599488994</v>
+        <v>27.45183869170927</v>
       </c>
       <c r="G8">
-        <v>40.38096842127769</v>
+        <v>39.44307837272501</v>
       </c>
       <c r="H8">
-        <v>16.89477269218786</v>
+        <v>12.35595699007644</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.041613081395127</v>
+        <v>13.74301287733655</v>
       </c>
       <c r="L8">
-        <v>8.589091420036759</v>
+        <v>6.639073575485327</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.66483392711099</v>
+        <v>15.05304628449588</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.826054137197136</v>
+        <v>4.334544398719895</v>
       </c>
       <c r="E9">
-        <v>17.34361568969461</v>
+        <v>11.66481294816129</v>
       </c>
       <c r="F9">
-        <v>31.19722753709189</v>
+        <v>29.83081400277864</v>
       </c>
       <c r="G9">
-        <v>41.16295630971049</v>
+        <v>43.21853851745878</v>
       </c>
       <c r="H9">
-        <v>16.89827453802621</v>
+        <v>12.8245846755713</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.911648327299501</v>
+        <v>15.48712911368168</v>
       </c>
       <c r="L9">
-        <v>8.677437230238816</v>
+        <v>7.587186790405704</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.86457493002182</v>
+        <v>16.13756976086789</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.826335177332277</v>
+        <v>4.281127521995185</v>
       </c>
       <c r="E10">
-        <v>17.29538929753333</v>
+        <v>11.58004585959521</v>
       </c>
       <c r="F10">
-        <v>31.52107916508267</v>
+        <v>31.59540071584569</v>
       </c>
       <c r="G10">
-        <v>41.78204489849324</v>
+        <v>46.0004704208378</v>
       </c>
       <c r="H10">
-        <v>16.91571040334497</v>
+        <v>13.20779666536523</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.4954666446001</v>
+        <v>16.66496901659049</v>
       </c>
       <c r="L10">
-        <v>8.750420498790353</v>
+        <v>8.225124796033988</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.95845857500705</v>
+        <v>16.61884487639044</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.826378275681269</v>
+        <v>4.256237711378992</v>
       </c>
       <c r="E11">
-        <v>17.27511937688345</v>
+        <v>11.546173963173</v>
       </c>
       <c r="F11">
-        <v>31.67539847788058</v>
+        <v>32.40012893514157</v>
       </c>
       <c r="G11">
-        <v>42.07242093213699</v>
+        <v>47.26533462281978</v>
       </c>
       <c r="H11">
-        <v>16.92686499870056</v>
+        <v>13.39095679551079</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.74857412224793</v>
+        <v>17.17855434998065</v>
       </c>
       <c r="L11">
-        <v>8.785283927086729</v>
+        <v>8.502927284438002</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.99441790796289</v>
+        <v>16.79929055566729</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.826382270765061</v>
+        <v>4.246712657382433</v>
       </c>
       <c r="E12">
-        <v>17.26768330369996</v>
+        <v>11.53405325866206</v>
       </c>
       <c r="F12">
-        <v>31.73480434918653</v>
+        <v>32.70505792955846</v>
       </c>
       <c r="G12">
-        <v>42.18355328609179</v>
+        <v>47.74409352711861</v>
       </c>
       <c r="H12">
-        <v>16.93155135655683</v>
+        <v>13.46161758118235</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.84259528367805</v>
+        <v>17.36987810580871</v>
       </c>
       <c r="L12">
-        <v>8.798716507355133</v>
+        <v>8.606374456912654</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.98665572508452</v>
+        <v>16.76050930797685</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.826381960688013</v>
+        <v>4.248768739905359</v>
       </c>
       <c r="E13">
-        <v>17.26927413768231</v>
+        <v>11.53663174579004</v>
       </c>
       <c r="F13">
-        <v>31.72196777951066</v>
+        <v>32.63937833774306</v>
       </c>
       <c r="G13">
-        <v>42.15956814171925</v>
+        <v>47.64099513223911</v>
       </c>
       <c r="H13">
-        <v>16.93052152335506</v>
+        <v>13.44634106915077</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.82242776089076</v>
+        <v>17.32881294203127</v>
       </c>
       <c r="L13">
-        <v>8.795813447318995</v>
+        <v>8.584172540693999</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.96140895679386</v>
+        <v>16.63372666814563</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.826378852158815</v>
+        <v>4.25545617033876</v>
       </c>
       <c r="E14">
-        <v>17.27450280388216</v>
+        <v>11.54516244914592</v>
       </c>
       <c r="F14">
-        <v>31.68026664772566</v>
+        <v>32.42521208541411</v>
       </c>
       <c r="G14">
-        <v>42.08154083891857</v>
+        <v>47.30472722761499</v>
       </c>
       <c r="H14">
-        <v>16.92724128942978</v>
+        <v>13.39674381346123</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.75634603905199</v>
+        <v>17.19435774877526</v>
       </c>
       <c r="L14">
-        <v>8.786384463308371</v>
+        <v>8.511472824914716</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.94599686376448</v>
+        <v>16.55583234715924</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.826375338921198</v>
+        <v>4.259538948862476</v>
       </c>
       <c r="E15">
-        <v>17.27773672306236</v>
+        <v>11.55048065480111</v>
       </c>
       <c r="F15">
-        <v>31.65484847338245</v>
+        <v>32.29405253250697</v>
       </c>
       <c r="G15">
-        <v>42.03389709371879</v>
+        <v>47.09872260008805</v>
       </c>
       <c r="H15">
-        <v>16.92529222514822</v>
+        <v>13.36653461787111</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.7156305494524</v>
+        <v>17.11158983085379</v>
       </c>
       <c r="L15">
-        <v>8.780638702659681</v>
+        <v>8.466715225877925</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.85849792606286</v>
+        <v>16.10586802827648</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.826330643465048</v>
+        <v>4.282741004116422</v>
       </c>
       <c r="E16">
-        <v>17.29674754003355</v>
+        <v>11.58235646343459</v>
       </c>
       <c r="F16">
-        <v>31.51113166325737</v>
+        <v>31.5428413673805</v>
       </c>
       <c r="G16">
-        <v>41.76323700224093</v>
+        <v>45.91778325521236</v>
       </c>
       <c r="H16">
-        <v>16.91504619187009</v>
+        <v>13.19600712872759</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.4786716553336</v>
+        <v>16.63096059834329</v>
       </c>
       <c r="L16">
-        <v>8.74817483056078</v>
+        <v>8.206722889525816</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.80557500771233</v>
+        <v>15.82668070743884</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.82628141837765</v>
+        <v>4.296813306409299</v>
       </c>
       <c r="E17">
-        <v>17.30883724598407</v>
+        <v>11.60313387907871</v>
       </c>
       <c r="F17">
-        <v>31.42473209023472</v>
+        <v>31.08243303235446</v>
       </c>
       <c r="G17">
-        <v>41.59937715741221</v>
+        <v>45.19303799767997</v>
       </c>
       <c r="H17">
-        <v>16.90958538024599</v>
+        <v>13.09367841078881</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.33008600453177</v>
+        <v>16.3304399274096</v>
       </c>
       <c r="L17">
-        <v>8.728679243877412</v>
+        <v>8.044071600897308</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.77542109341978</v>
+        <v>15.66496477662431</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.826245136501732</v>
+        <v>4.304852737292613</v>
       </c>
       <c r="E18">
-        <v>17.31594798621963</v>
+        <v>11.61552381927251</v>
       </c>
       <c r="F18">
-        <v>31.37569837982802</v>
+        <v>30.81781048258952</v>
       </c>
       <c r="G18">
-        <v>41.50595811556057</v>
+        <v>44.7761255488072</v>
       </c>
       <c r="H18">
-        <v>16.90674791100746</v>
+        <v>13.03565121361158</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.24345082049411</v>
+        <v>16.15549395539107</v>
       </c>
       <c r="L18">
-        <v>8.717622963702599</v>
+        <v>7.949349563120933</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.76526140986348</v>
+        <v>15.61001805952036</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.826231487715727</v>
+        <v>4.307565810378857</v>
       </c>
       <c r="E19">
-        <v>17.31838254289392</v>
+        <v>11.61979337372287</v>
       </c>
       <c r="F19">
-        <v>31.35921105927618</v>
+        <v>30.72825034098381</v>
       </c>
       <c r="G19">
-        <v>41.47447292780805</v>
+        <v>44.63496110483833</v>
       </c>
       <c r="H19">
-        <v>16.905839337569</v>
+        <v>13.01614577079995</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.21391727709234</v>
+        <v>16.09589967865975</v>
       </c>
       <c r="L19">
-        <v>8.713906728435358</v>
+        <v>7.917076585090197</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.81117933928051</v>
+        <v>15.85651867419665</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.826287484226917</v>
+        <v>4.295321039412795</v>
       </c>
       <c r="E20">
-        <v>17.30753402253912</v>
+        <v>11.60087639930371</v>
       </c>
       <c r="F20">
-        <v>31.43386132428327</v>
+        <v>31.13142520412053</v>
       </c>
       <c r="G20">
-        <v>41.6167351464635</v>
+        <v>45.2701955093802</v>
       </c>
       <c r="H20">
-        <v>16.91013529435333</v>
+        <v>13.10448540141384</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.34602480951441</v>
+        <v>16.36264741808462</v>
       </c>
       <c r="L20">
-        <v>8.730738387580894</v>
+        <v>8.061506912106175</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.96881369780709</v>
+        <v>16.67101512829678</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.826380100800298</v>
+        <v>4.253494744712394</v>
       </c>
       <c r="E21">
-        <v>17.2729605141057</v>
+        <v>11.54263735371186</v>
       </c>
       <c r="F21">
-        <v>31.69248930679089</v>
+        <v>32.48811312301076</v>
       </c>
       <c r="G21">
-        <v>42.10442819597498</v>
+        <v>47.40350380796041</v>
       </c>
       <c r="H21">
-        <v>16.92819223594232</v>
+        <v>13.41127612470775</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.77580559995205</v>
+        <v>17.23393590788437</v>
       </c>
       <c r="L21">
-        <v>8.789147797441592</v>
+        <v>8.532873718771256</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.07420002254004</v>
+        <v>17.19281472005146</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.826368727974307</v>
+        <v>4.225569096596842</v>
       </c>
       <c r="E22">
-        <v>17.25176181356047</v>
+        <v>11.5087055657012</v>
       </c>
       <c r="F22">
-        <v>31.86714393950943</v>
+        <v>33.37591587704424</v>
       </c>
       <c r="G22">
-        <v>42.42996146418515</v>
+        <v>48.79646854199099</v>
       </c>
       <c r="H22">
-        <v>16.94268769452421</v>
+        <v>13.61938821615802</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.04604292080278</v>
+        <v>17.78498103995724</v>
       </c>
       <c r="L22">
-        <v>8.828661349447827</v>
+        <v>8.830754363254828</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.01774612258929</v>
+        <v>16.9152984007133</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.826381421862141</v>
+        <v>4.240532789538582</v>
       </c>
       <c r="E23">
-        <v>17.26294819921429</v>
+        <v>11.52642650723087</v>
       </c>
       <c r="F23">
-        <v>31.77342563459511</v>
+        <v>32.90199533599164</v>
       </c>
       <c r="G23">
-        <v>42.2556248860016</v>
+        <v>48.05315620781067</v>
       </c>
       <c r="H23">
-        <v>16.93470512803267</v>
+        <v>13.50760746975505</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.90279559346023</v>
+        <v>17.49254563607821</v>
       </c>
       <c r="L23">
-        <v>8.807452575497257</v>
+        <v>8.672689616164472</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.80864477114199</v>
+        <v>15.84303268500182</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.826284766681826</v>
+        <v>4.295995850822336</v>
       </c>
       <c r="E24">
-        <v>17.30812271082954</v>
+        <v>11.60189562303886</v>
       </c>
       <c r="F24">
-        <v>31.42973200556739</v>
+        <v>31.10927561036834</v>
       </c>
       <c r="G24">
-        <v>41.60888514421623</v>
+        <v>45.23531335657918</v>
       </c>
       <c r="H24">
-        <v>16.90988573724936</v>
+        <v>13.09959706228721</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.33882264642202</v>
+        <v>16.34809318133603</v>
       </c>
       <c r="L24">
-        <v>8.729806974627751</v>
+        <v>8.053628184289813</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.59412747965176</v>
+        <v>14.64353206996123</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.82587644463937</v>
+        <v>4.353785048342924</v>
       </c>
       <c r="E25">
-        <v>17.36285647473717</v>
+        <v>11.69999115364504</v>
       </c>
       <c r="F25">
-        <v>31.08440766905195</v>
+        <v>29.18360873059913</v>
       </c>
       <c r="G25">
-        <v>40.94327428202107</v>
+        <v>42.19469855277955</v>
       </c>
       <c r="H25">
-        <v>16.89471636429698</v>
+        <v>12.69109939625231</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.685831261921232</v>
+        <v>15.03351826994537</v>
       </c>
       <c r="L25">
-        <v>8.652089266091862</v>
+        <v>7.341083307449366</v>
       </c>
       <c r="M25">
         <v>0</v>
